--- a/computer_generated_schedule_w_checks.xlsx
+++ b/computer_generated_schedule_w_checks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\Roberts Side Projects\May 22 output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D46D47-EC58-433F-B2AD-2987A1983BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F448D404-9BCD-4A6E-8377-D507F5EB1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B471A81-6E93-4F2B-8800-CA77804D0527}"/>
   </bookViews>
@@ -2908,11 +2908,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3250,7 +3250,7 @@
   <dimension ref="A1:FZ131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="CL109" sqref="CL109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3857,14 +3857,14 @@
       </c>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="4" t="s">
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BO2" s="5"/>
+      <c r="BO2" s="8"/>
       <c r="BP2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3873,14 +3873,14 @@
         <v>20</v>
       </c>
       <c r="BS2" s="3"/>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="4" t="s">
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="BW2" s="5"/>
+      <c r="BW2" s="8"/>
       <c r="BX2" s="3"/>
       <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
@@ -3903,41 +3903,41 @@
       <c r="CQ2" s="3"/>
       <c r="CR2" s="3"/>
       <c r="CS2" s="3"/>
-      <c r="CT2" s="4" t="s">
+      <c r="CT2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="CU2" s="5"/>
-      <c r="CV2" s="4" t="s">
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="CW2" s="5"/>
-      <c r="CX2" s="4" t="s">
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="CY2" s="5"/>
-      <c r="CZ2" s="4" t="s">
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="DA2" s="5"/>
-      <c r="DB2" s="4" t="s">
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="DC2" s="5"/>
-      <c r="DD2" s="4" t="s">
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="DE2" s="5"/>
+      <c r="DE2" s="8"/>
       <c r="DF2" s="3"/>
       <c r="DG2" s="3"/>
       <c r="DH2" s="3"/>
       <c r="DI2" s="3"/>
       <c r="DJ2" s="3"/>
       <c r="DK2" s="3"/>
-      <c r="DL2" s="4" t="s">
+      <c r="DL2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="DM2" s="5"/>
-      <c r="DN2" s="5"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
       <c r="DO2" s="3"/>
       <c r="DP2" s="3"/>
       <c r="DQ2" s="3"/>
@@ -3955,66 +3955,66 @@
       <c r="EH2" s="3"/>
       <c r="EI2" s="3"/>
       <c r="EJ2" s="3"/>
-      <c r="EK2" s="4" t="s">
+      <c r="EK2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="EL2" s="5"/>
-      <c r="EM2" s="5"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
       <c r="EN2" s="3"/>
       <c r="EO2" s="3"/>
       <c r="EP2" s="3"/>
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
-      <c r="ES2" s="4" t="s">
+      <c r="ES2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="ET2" s="5"/>
-      <c r="EU2" s="4" t="s">
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="EV2" s="5"/>
-      <c r="EW2" s="4" t="s">
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="EX2" s="5"/>
-      <c r="EY2" s="4" t="s">
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" s="5"/>
-      <c r="FA2" s="4" t="s">
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="FB2" s="5"/>
-      <c r="FC2" s="4" t="s">
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="FD2" s="5"/>
-      <c r="FE2" s="5"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
       <c r="FF2" s="3"/>
       <c r="FG2" s="3"/>
       <c r="FH2" s="3"/>
       <c r="FI2" s="3"/>
       <c r="FJ2" s="3"/>
-      <c r="FK2" s="4" t="s">
+      <c r="FK2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="FL2" s="5"/>
-      <c r="FM2" s="4" t="s">
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="FN2" s="5"/>
-      <c r="FO2" s="4" t="s">
+      <c r="FN2" s="8"/>
+      <c r="FO2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="FP2" s="5"/>
-      <c r="FQ2" s="4" t="s">
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="FR2" s="5"/>
-      <c r="FS2" s="4" t="s">
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="FT2" s="5"/>
+      <c r="FT2" s="8"/>
       <c r="FU2" s="3" t="s">
         <v>25</v>
       </c>
@@ -4072,38 +4072,38 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BO3" s="5"/>
+      <c r="BO3" s="8"/>
       <c r="BP3" s="3"/>
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
-      <c r="BT3" s="4" t="s">
+      <c r="BT3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="4" t="s">
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="4" t="s">
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="4" t="s">
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="4" t="s">
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="4" t="s">
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="CE3" s="5"/>
+      <c r="CE3" s="8"/>
       <c r="CF3" s="3"/>
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
@@ -4118,49 +4118,49 @@
       <c r="CQ3" s="3"/>
       <c r="CR3" s="3"/>
       <c r="CS3" s="3"/>
-      <c r="CT3" s="4" t="s">
+      <c r="CT3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="4" t="s">
+      <c r="CU3" s="8"/>
+      <c r="CV3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="4" t="s">
+      <c r="CW3" s="8"/>
+      <c r="CX3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="4" t="s">
+      <c r="CY3" s="8"/>
+      <c r="CZ3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="4" t="s">
+      <c r="DA3" s="8"/>
+      <c r="DB3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="4" t="s">
+      <c r="DC3" s="8"/>
+      <c r="DD3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
+      <c r="DE3" s="8"/>
+      <c r="DF3" s="8"/>
       <c r="DG3" s="3"/>
-      <c r="DH3" s="4" t="s">
+      <c r="DH3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
+      <c r="DI3" s="8"/>
+      <c r="DJ3" s="8"/>
       <c r="DK3" s="3"/>
       <c r="DL3" s="3"/>
       <c r="DM3" s="3"/>
-      <c r="DN3" s="4" t="s">
+      <c r="DN3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="DO3" s="5"/>
-      <c r="DP3" s="4" t="s">
+      <c r="DO3" s="8"/>
+      <c r="DP3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="DQ3" s="5"/>
-      <c r="DR3" s="5"/>
+      <c r="DQ3" s="8"/>
+      <c r="DR3" s="8"/>
       <c r="DS3" s="3"/>
       <c r="DT3" s="3"/>
       <c r="DU3" s="3"/>
@@ -4174,47 +4174,47 @@
       <c r="EH3" s="3"/>
       <c r="EI3" s="3"/>
       <c r="EJ3" s="3"/>
-      <c r="EK3" s="4" t="s">
+      <c r="EK3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="EL3" s="5"/>
-      <c r="EM3" s="4" t="s">
+      <c r="EL3" s="8"/>
+      <c r="EM3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="EN3" s="5"/>
-      <c r="EO3" s="4" t="s">
+      <c r="EN3" s="8"/>
+      <c r="EO3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="EP3" s="5"/>
+      <c r="EP3" s="8"/>
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
       <c r="ES3" s="3"/>
       <c r="ET3" s="3"/>
-      <c r="EU3" s="4" t="s">
+      <c r="EU3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="EV3" s="5"/>
-      <c r="EW3" s="5"/>
+      <c r="EV3" s="8"/>
+      <c r="EW3" s="8"/>
       <c r="EX3" s="3"/>
       <c r="EY3" s="3"/>
       <c r="EZ3" s="3"/>
-      <c r="FA3" s="4" t="s">
+      <c r="FA3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="FB3" s="5"/>
-      <c r="FC3" s="4" t="s">
+      <c r="FB3" s="8"/>
+      <c r="FC3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="FD3" s="5"/>
-      <c r="FE3" s="4" t="s">
+      <c r="FD3" s="8"/>
+      <c r="FE3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="FF3" s="5"/>
-      <c r="FG3" s="4" t="s">
+      <c r="FF3" s="8"/>
+      <c r="FG3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FH3" s="5"/>
-      <c r="FI3" s="5"/>
+      <c r="FH3" s="8"/>
+      <c r="FI3" s="8"/>
       <c r="FJ3" s="3"/>
       <c r="FK3" s="3"/>
       <c r="FL3" s="3"/>
@@ -4222,15 +4222,15 @@
       <c r="FN3" s="3"/>
       <c r="FO3" s="3"/>
       <c r="FP3" s="3"/>
-      <c r="FQ3" s="4" t="s">
+      <c r="FQ3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="FR3" s="5"/>
-      <c r="FS3" s="4" t="s">
+      <c r="FR3" s="8"/>
+      <c r="FS3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="FT3" s="5"/>
-      <c r="FU3" s="5"/>
+      <c r="FT3" s="8"/>
+      <c r="FU3" s="8"/>
     </row>
     <row r="4" spans="1:182" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4285,10 +4285,10 @@
         <v>77</v>
       </c>
       <c r="BK4" s="3"/>
-      <c r="BL4" s="4" t="s">
+      <c r="BL4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BM4" s="5"/>
+      <c r="BM4" s="8"/>
       <c r="BN4" s="3"/>
       <c r="BO4" s="3"/>
       <c r="BP4" s="3" t="s">
@@ -4297,31 +4297,31 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
       <c r="BS4" s="3"/>
-      <c r="BT4" s="4" t="s">
+      <c r="BT4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="4" t="s">
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="4" t="s">
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="4" t="s">
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="4" t="s">
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="4" t="s">
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
@@ -4337,42 +4337,42 @@
       <c r="CS4" s="3"/>
       <c r="CT4" s="3"/>
       <c r="CU4" s="3"/>
-      <c r="CV4" s="4" t="s">
+      <c r="CV4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CW4" s="5"/>
+      <c r="CW4" s="8"/>
       <c r="CX4" s="3"/>
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3"/>
       <c r="DA4" s="3"/>
-      <c r="DB4" s="4" t="s">
+      <c r="DB4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="DC4" s="5"/>
-      <c r="DD4" s="4" t="s">
+      <c r="DC4" s="8"/>
+      <c r="DD4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DE4" s="5"/>
-      <c r="DF4" s="4" t="s">
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="DG4" s="5"/>
-      <c r="DH4" s="4" t="s">
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="DI4" s="5"/>
-      <c r="DJ4" s="4" t="s">
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="DK4" s="5"/>
-      <c r="DL4" s="4" t="s">
+      <c r="DK4" s="8"/>
+      <c r="DL4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="DM4" s="5"/>
-      <c r="DN4" s="4" t="s">
+      <c r="DM4" s="8"/>
+      <c r="DN4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="DO4" s="5"/>
+      <c r="DO4" s="8"/>
       <c r="DP4" s="3"/>
       <c r="DQ4" s="3"/>
       <c r="DR4" s="3"/>
@@ -4391,14 +4391,14 @@
       <c r="EJ4" s="3"/>
       <c r="EK4" s="3"/>
       <c r="EL4" s="3"/>
-      <c r="EM4" s="4" t="s">
+      <c r="EM4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="EN4" s="5"/>
-      <c r="EO4" s="4" t="s">
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="EP4" s="5"/>
+      <c r="EP4" s="8"/>
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
       <c r="ES4" s="3"/>
@@ -4407,35 +4407,35 @@
       <c r="EV4" s="3"/>
       <c r="EW4" s="3"/>
       <c r="EX4" s="3"/>
-      <c r="EY4" s="4" t="s">
+      <c r="EY4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="EZ4" s="5"/>
-      <c r="FA4" s="4" t="s">
+      <c r="EZ4" s="8"/>
+      <c r="FA4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="FB4" s="5"/>
-      <c r="FC4" s="4" t="s">
+      <c r="FB4" s="8"/>
+      <c r="FC4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="FD4" s="5"/>
-      <c r="FE4" s="4" t="s">
+      <c r="FD4" s="8"/>
+      <c r="FE4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="FF4" s="5"/>
-      <c r="FG4" s="4" t="s">
+      <c r="FF4" s="8"/>
+      <c r="FG4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="FH4" s="5"/>
-      <c r="FI4" s="4" t="s">
+      <c r="FH4" s="8"/>
+      <c r="FI4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="FJ4" s="5"/>
-      <c r="FK4" s="4" t="s">
+      <c r="FJ4" s="8"/>
+      <c r="FK4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="FL4" s="5"/>
-      <c r="FM4" s="5"/>
+      <c r="FL4" s="8"/>
+      <c r="FM4" s="8"/>
       <c r="FN4" s="3"/>
       <c r="FO4" s="3"/>
       <c r="FP4" s="3"/>
@@ -4514,26 +4514,26 @@
       <c r="BW5" s="3"/>
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="4" t="s">
+      <c r="BZ5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="4" t="s">
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="4" t="s">
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="4" t="s">
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="4" t="s">
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="CI5" s="5"/>
+      <c r="CI5" s="8"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
@@ -4544,64 +4544,64 @@
       <c r="CQ5" s="3"/>
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
-      <c r="CT5" s="4" t="s">
+      <c r="CT5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="CU5" s="5"/>
+      <c r="CU5" s="8"/>
       <c r="CV5" s="3"/>
       <c r="CW5" s="3"/>
-      <c r="CX5" s="4" t="s">
+      <c r="CX5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="CY5" s="5"/>
-      <c r="CZ5" s="4" t="s">
+      <c r="CY5" s="8"/>
+      <c r="CZ5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DA5" s="5"/>
-      <c r="DB5" s="4" t="s">
+      <c r="DA5" s="8"/>
+      <c r="DB5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DC5" s="5"/>
-      <c r="DD5" s="4" t="s">
+      <c r="DC5" s="8"/>
+      <c r="DD5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DE5" s="5"/>
-      <c r="DF5" s="4" t="s">
+      <c r="DE5" s="8"/>
+      <c r="DF5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DG5" s="5"/>
-      <c r="DH5" s="4" t="s">
+      <c r="DG5" s="8"/>
+      <c r="DH5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DI5" s="5"/>
-      <c r="DJ5" s="4" t="s">
+      <c r="DI5" s="8"/>
+      <c r="DJ5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DK5" s="5"/>
-      <c r="DL5" s="4" t="s">
+      <c r="DK5" s="8"/>
+      <c r="DL5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DM5" s="5"/>
-      <c r="DN5" s="4" t="s">
+      <c r="DM5" s="8"/>
+      <c r="DN5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DO5" s="5"/>
-      <c r="DP5" s="4" t="s">
+      <c r="DO5" s="8"/>
+      <c r="DP5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DQ5" s="5"/>
-      <c r="DR5" s="4" t="s">
+      <c r="DQ5" s="8"/>
+      <c r="DR5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DS5" s="5"/>
-      <c r="DT5" s="4" t="s">
+      <c r="DS5" s="8"/>
+      <c r="DT5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DU5" s="5"/>
-      <c r="EA5" s="4" t="s">
+      <c r="DU5" s="8"/>
+      <c r="EA5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="EB5" s="5"/>
+      <c r="EB5" s="8"/>
       <c r="EC5" s="3"/>
       <c r="ED5" s="3"/>
       <c r="EE5" s="3"/>
@@ -4616,10 +4616,10 @@
       <c r="EN5" s="3"/>
       <c r="EO5" s="3"/>
       <c r="EP5" s="3"/>
-      <c r="EQ5" s="4" t="s">
+      <c r="EQ5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="ER5" s="5"/>
+      <c r="ER5" s="8"/>
       <c r="ES5" s="3" t="s">
         <v>120</v>
       </c>
@@ -4632,10 +4632,10 @@
       <c r="EZ5" s="3"/>
       <c r="FA5" s="3"/>
       <c r="FB5" s="3"/>
-      <c r="FC5" s="4" t="s">
+      <c r="FC5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="FD5" s="5"/>
+      <c r="FD5" s="8"/>
       <c r="FE5" s="3" t="s">
         <v>120</v>
       </c>
@@ -4719,40 +4719,40 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
-      <c r="BT6" s="4" t="s">
+      <c r="BT6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BU6" s="5"/>
+      <c r="BU6" s="8"/>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="3" t="s">
         <v>139</v>
       </c>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="4" t="s">
+      <c r="BZ6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="4" t="s">
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="4" t="s">
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="4" t="s">
+      <c r="CE6" s="8"/>
+      <c r="CF6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="4" t="s">
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="CI6" s="5"/>
-      <c r="CJ6" s="4" t="s">
+      <c r="CI6" s="8"/>
+      <c r="CJ6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="CK6" s="5"/>
+      <c r="CK6" s="8"/>
       <c r="CL6" s="3"/>
       <c r="CM6" s="3"/>
       <c r="CN6" s="3"/>
@@ -4767,54 +4767,54 @@
       <c r="CW6" s="3"/>
       <c r="CX6" s="3"/>
       <c r="CY6" s="3"/>
-      <c r="CZ6" s="4" t="s">
+      <c r="CZ6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="DA6" s="5"/>
+      <c r="DA6" s="8"/>
       <c r="DB6" s="3"/>
       <c r="DC6" s="3"/>
-      <c r="DD6" s="4" t="s">
+      <c r="DD6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="DE6" s="5"/>
-      <c r="DF6" s="4" t="s">
+      <c r="DE6" s="8"/>
+      <c r="DF6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="DG6" s="5"/>
-      <c r="DH6" s="4" t="s">
+      <c r="DG6" s="8"/>
+      <c r="DH6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="DI6" s="5"/>
-      <c r="DJ6" s="4" t="s">
+      <c r="DI6" s="8"/>
+      <c r="DJ6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="DK6" s="5"/>
-      <c r="DL6" s="4" t="s">
+      <c r="DK6" s="8"/>
+      <c r="DL6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="DM6" s="5"/>
-      <c r="DN6" s="4" t="s">
+      <c r="DM6" s="8"/>
+      <c r="DN6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="DO6" s="5"/>
-      <c r="DP6" s="4" t="s">
+      <c r="DO6" s="8"/>
+      <c r="DP6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="DQ6" s="5"/>
-      <c r="DR6" s="4" t="s">
+      <c r="DQ6" s="8"/>
+      <c r="DR6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="DS6" s="5"/>
-      <c r="DT6" s="4" t="s">
+      <c r="DS6" s="8"/>
+      <c r="DT6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="DU6" s="5"/>
+      <c r="DU6" s="8"/>
       <c r="EA6" s="3"/>
       <c r="EB6" s="3"/>
-      <c r="EC6" s="4" t="s">
+      <c r="EC6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="ED6" s="5"/>
+      <c r="ED6" s="8"/>
       <c r="EE6" s="3"/>
       <c r="EF6" s="3"/>
       <c r="EG6" s="3"/>
@@ -4827,10 +4827,10 @@
       <c r="EN6" s="3"/>
       <c r="EO6" s="3"/>
       <c r="EP6" s="3"/>
-      <c r="EQ6" s="4" t="s">
+      <c r="EQ6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="ER6" s="5"/>
+      <c r="ER6" s="8"/>
       <c r="ES6" s="3"/>
       <c r="ET6" s="3"/>
       <c r="EU6" s="3"/>
@@ -4845,26 +4845,26 @@
       <c r="FD6" s="3"/>
       <c r="FE6" s="3"/>
       <c r="FF6" s="3"/>
-      <c r="FG6" s="4" t="s">
+      <c r="FG6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="FH6" s="5"/>
-      <c r="FI6" s="4" t="s">
+      <c r="FH6" s="8"/>
+      <c r="FI6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="FJ6" s="5"/>
+      <c r="FJ6" s="8"/>
       <c r="FK6" s="3" t="s">
         <v>139</v>
       </c>
       <c r="FL6" s="3"/>
-      <c r="FM6" s="4" t="s">
+      <c r="FM6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="FN6" s="5"/>
-      <c r="FO6" s="4" t="s">
+      <c r="FN6" s="8"/>
+      <c r="FO6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="FP6" s="5"/>
+      <c r="FP6" s="8"/>
       <c r="FQ6" s="3"/>
       <c r="FR6" s="3"/>
       <c r="FS6" s="3"/>
@@ -4921,10 +4921,10 @@
         <v>166</v>
       </c>
       <c r="BK7" s="3"/>
-      <c r="BL7" s="4" t="s">
+      <c r="BL7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="BM7" s="5"/>
+      <c r="BM7" s="8"/>
       <c r="BN7" s="3"/>
       <c r="BO7" s="3"/>
       <c r="BP7" s="3"/>
@@ -4933,41 +4933,41 @@
       <c r="BS7" s="3"/>
       <c r="BT7" s="3"/>
       <c r="BU7" s="3"/>
-      <c r="BV7" s="4" t="s">
+      <c r="BV7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BW7" s="5"/>
+      <c r="BW7" s="8"/>
       <c r="BX7" s="3"/>
       <c r="BY7" s="3"/>
-      <c r="BZ7" s="4" t="s">
+      <c r="BZ7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="CA7" s="5"/>
-      <c r="CB7" s="4" t="s">
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="4" t="s">
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="4" t="s">
+      <c r="CE7" s="8"/>
+      <c r="CF7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="CG7" s="5"/>
-      <c r="CH7" s="4" t="s">
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="CI7" s="5"/>
-      <c r="CJ7" s="4" t="s">
+      <c r="CI7" s="8"/>
+      <c r="CJ7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="4" t="s">
+      <c r="CK7" s="8"/>
+      <c r="CL7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
+      <c r="CM7" s="8"/>
+      <c r="CN7" s="8"/>
       <c r="CO7" s="3"/>
       <c r="CP7" s="3"/>
       <c r="CQ7" s="3"/>
@@ -4985,42 +4985,42 @@
       <c r="DC7" s="3"/>
       <c r="DD7" s="3"/>
       <c r="DE7" s="3"/>
-      <c r="DF7" s="4" t="s">
+      <c r="DF7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="DG7" s="5"/>
-      <c r="DH7" s="4" t="s">
+      <c r="DG7" s="8"/>
+      <c r="DH7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="DI7" s="5"/>
-      <c r="DJ7" s="4" t="s">
+      <c r="DI7" s="8"/>
+      <c r="DJ7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="DK7" s="5"/>
-      <c r="DL7" s="4" t="s">
+      <c r="DK7" s="8"/>
+      <c r="DL7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="DM7" s="5"/>
-      <c r="DN7" s="4" t="s">
+      <c r="DM7" s="8"/>
+      <c r="DN7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="DO7" s="5"/>
-      <c r="DP7" s="4" t="s">
+      <c r="DO7" s="8"/>
+      <c r="DP7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="DQ7" s="5"/>
-      <c r="DR7" s="4" t="s">
+      <c r="DQ7" s="8"/>
+      <c r="DR7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="DS7" s="5"/>
-      <c r="DT7" s="4" t="s">
+      <c r="DS7" s="8"/>
+      <c r="DT7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="DU7" s="5"/>
-      <c r="EA7" s="4" t="s">
+      <c r="DU7" s="8"/>
+      <c r="EA7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="EB7" s="5"/>
+      <c r="EB7" s="8"/>
       <c r="EC7" s="3"/>
       <c r="ED7" s="3"/>
       <c r="EE7" s="3"/>
@@ -5041,10 +5041,10 @@
       <c r="ET7" s="3"/>
       <c r="EU7" s="3"/>
       <c r="EV7" s="3"/>
-      <c r="EW7" s="4" t="s">
+      <c r="EW7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="EX7" s="5"/>
+      <c r="EX7" s="8"/>
       <c r="EY7" s="3"/>
       <c r="EZ7" s="3"/>
       <c r="FA7" s="3"/>
@@ -5055,30 +5055,30 @@
       <c r="FF7" s="3"/>
       <c r="FG7" s="3"/>
       <c r="FH7" s="3"/>
-      <c r="FI7" s="4" t="s">
+      <c r="FI7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="FJ7" s="5"/>
-      <c r="FK7" s="4" t="s">
+      <c r="FJ7" s="8"/>
+      <c r="FK7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="FL7" s="5"/>
-      <c r="FM7" s="4" t="s">
+      <c r="FL7" s="8"/>
+      <c r="FM7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="FN7" s="5"/>
-      <c r="FO7" s="4" t="s">
+      <c r="FN7" s="8"/>
+      <c r="FO7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="FP7" s="5"/>
-      <c r="FQ7" s="4" t="s">
+      <c r="FP7" s="8"/>
+      <c r="FQ7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="FR7" s="5"/>
-      <c r="FS7" s="4" t="s">
+      <c r="FR7" s="8"/>
+      <c r="FS7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="FT7" s="5"/>
+      <c r="FT7" s="8"/>
       <c r="FU7" s="3" t="s">
         <v>180</v>
       </c>
@@ -5136,10 +5136,10 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
-      <c r="BN8" s="4" t="s">
+      <c r="BN8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BO8" s="5"/>
+      <c r="BO8" s="8"/>
       <c r="BP8" s="3" t="s">
         <v>198</v>
       </c>
@@ -5148,46 +5148,46 @@
         <v>199</v>
       </c>
       <c r="BS8" s="3"/>
-      <c r="BT8" s="4" t="s">
+      <c r="BT8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="4" t="s">
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="4" t="s">
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="BY8" s="5"/>
+      <c r="BY8" s="8"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
       <c r="CC8" s="3"/>
-      <c r="CD8" s="4" t="s">
+      <c r="CD8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="CE8" s="5"/>
-      <c r="CF8" s="4" t="s">
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="CG8" s="5"/>
-      <c r="CH8" s="4" t="s">
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="4" t="s">
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="4" t="s">
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="4" t="s">
+      <c r="CM8" s="8"/>
+      <c r="CN8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CO8" s="5"/>
+      <c r="CO8" s="8"/>
       <c r="CP8" s="3"/>
       <c r="CQ8" s="3"/>
       <c r="CR8" s="3"/>
@@ -5214,38 +5214,38 @@
       <c r="DM8" s="3"/>
       <c r="DN8" s="3"/>
       <c r="DO8" s="3"/>
-      <c r="DP8" s="4" t="s">
+      <c r="DP8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="DQ8" s="5"/>
-      <c r="DR8" s="4" t="s">
+      <c r="DQ8" s="8"/>
+      <c r="DR8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="DS8" s="5"/>
-      <c r="DT8" s="4" t="s">
+      <c r="DS8" s="8"/>
+      <c r="DT8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="DU8" s="5"/>
-      <c r="EA8" s="4" t="s">
+      <c r="DU8" s="8"/>
+      <c r="EA8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="EB8" s="5"/>
-      <c r="EC8" s="4" t="s">
+      <c r="EB8" s="8"/>
+      <c r="EC8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="ED8" s="5"/>
-      <c r="EE8" s="4" t="s">
+      <c r="ED8" s="8"/>
+      <c r="EE8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="EF8" s="5"/>
-      <c r="EG8" s="4" t="s">
+      <c r="EF8" s="8"/>
+      <c r="EG8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="EH8" s="5"/>
-      <c r="EI8" s="4" t="s">
+      <c r="EH8" s="8"/>
+      <c r="EI8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="EJ8" s="5"/>
+      <c r="EJ8" s="8"/>
       <c r="EK8" s="3"/>
       <c r="EL8" s="3"/>
       <c r="EM8" s="3"/>
@@ -5258,10 +5258,10 @@
       <c r="ET8" s="3"/>
       <c r="EU8" s="3"/>
       <c r="EV8" s="3"/>
-      <c r="EW8" s="4" t="s">
+      <c r="EW8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="EX8" s="5"/>
+      <c r="EX8" s="8"/>
       <c r="EY8" s="3"/>
       <c r="EZ8" s="3"/>
       <c r="FA8" s="3"/>
@@ -5272,26 +5272,26 @@
       <c r="FF8" s="3"/>
       <c r="FG8" s="3"/>
       <c r="FH8" s="3"/>
-      <c r="FI8" s="4" t="s">
+      <c r="FI8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="FJ8" s="5"/>
-      <c r="FK8" s="4" t="s">
+      <c r="FJ8" s="8"/>
+      <c r="FK8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="FL8" s="5"/>
-      <c r="FM8" s="4" t="s">
+      <c r="FL8" s="8"/>
+      <c r="FM8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="FN8" s="5"/>
-      <c r="FO8" s="4" t="s">
+      <c r="FN8" s="8"/>
+      <c r="FO8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="FP8" s="5"/>
-      <c r="FQ8" s="4" t="s">
+      <c r="FP8" s="8"/>
+      <c r="FQ8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="FR8" s="5"/>
+      <c r="FR8" s="8"/>
       <c r="FS8" s="3"/>
       <c r="FT8" s="3"/>
       <c r="FU8" s="3"/>
@@ -5345,15 +5345,15 @@
       <c r="BH9" t="s">
         <v>226</v>
       </c>
-      <c r="BJ9" s="4" t="s">
+      <c r="BJ9" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="4" t="s">
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="BM9" s="5"/>
-      <c r="BN9" s="5"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
       <c r="BO9" s="3"/>
       <c r="BP9" s="3" t="s">
         <v>228</v>
@@ -5363,50 +5363,50 @@
       <c r="BS9" s="3"/>
       <c r="BT9" s="3"/>
       <c r="BU9" s="3"/>
-      <c r="BV9" s="4" t="s">
+      <c r="BV9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="4" t="s">
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="BY9" s="5"/>
+      <c r="BY9" s="8"/>
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
       <c r="CB9" s="3"/>
       <c r="CC9" s="3"/>
       <c r="CD9" s="3"/>
       <c r="CE9" s="3"/>
-      <c r="CF9" s="4" t="s">
+      <c r="CF9" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="CG9" s="5"/>
+      <c r="CG9" s="8"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="4" t="s">
+      <c r="CL9" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="4" t="s">
+      <c r="CM9" s="8"/>
+      <c r="CN9" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="CO9" s="5"/>
-      <c r="CP9" s="4" t="s">
+      <c r="CO9" s="8"/>
+      <c r="CP9" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="CQ9" s="5"/>
+      <c r="CQ9" s="8"/>
       <c r="CR9" s="3"/>
       <c r="CS9" s="3"/>
       <c r="CT9" s="3"/>
       <c r="CU9" s="3"/>
       <c r="CV9" s="3"/>
       <c r="CW9" s="3"/>
-      <c r="CX9" s="4" t="s">
+      <c r="CX9" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="CY9" s="5"/>
+      <c r="CY9" s="8"/>
       <c r="CZ9" s="3"/>
       <c r="DA9" s="3"/>
       <c r="DB9" s="3"/>
@@ -5425,30 +5425,30 @@
       <c r="DO9" s="3"/>
       <c r="DP9" s="3"/>
       <c r="DQ9" s="3"/>
-      <c r="DR9" s="4" t="s">
+      <c r="DR9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="DS9" s="5"/>
-      <c r="DT9" s="4" t="s">
+      <c r="DS9" s="8"/>
+      <c r="DT9" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="DU9" s="5"/>
-      <c r="EA9" s="4" t="s">
+      <c r="DU9" s="8"/>
+      <c r="EA9" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="EB9" s="5"/>
-      <c r="EC9" s="4" t="s">
+      <c r="EB9" s="8"/>
+      <c r="EC9" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="ED9" s="5"/>
-      <c r="EE9" s="4" t="s">
+      <c r="ED9" s="8"/>
+      <c r="EE9" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="EF9" s="5"/>
-      <c r="EG9" s="4" t="s">
+      <c r="EF9" s="8"/>
+      <c r="EG9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="EH9" s="5"/>
+      <c r="EH9" s="8"/>
       <c r="EI9" s="3"/>
       <c r="EJ9" s="3"/>
       <c r="EK9" s="3"/>
@@ -5465,46 +5465,46 @@
       <c r="EV9" s="3"/>
       <c r="EW9" s="3"/>
       <c r="EX9" s="3"/>
-      <c r="EY9" s="4" t="s">
+      <c r="EY9" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="EZ9" s="5"/>
-      <c r="FA9" s="4" t="s">
+      <c r="EZ9" s="8"/>
+      <c r="FA9" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="FB9" s="5"/>
-      <c r="FC9" s="4" t="s">
+      <c r="FB9" s="8"/>
+      <c r="FC9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="FD9" s="5"/>
-      <c r="FE9" s="4" t="s">
+      <c r="FD9" s="8"/>
+      <c r="FE9" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="FF9" s="5"/>
-      <c r="FG9" s="5"/>
+      <c r="FF9" s="8"/>
+      <c r="FG9" s="8"/>
       <c r="FH9" s="3"/>
       <c r="FI9" s="3"/>
       <c r="FJ9" s="3"/>
-      <c r="FK9" s="4" t="s">
+      <c r="FK9" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="FL9" s="5"/>
-      <c r="FM9" s="4" t="s">
+      <c r="FL9" s="8"/>
+      <c r="FM9" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="FN9" s="5"/>
-      <c r="FO9" s="4" t="s">
+      <c r="FN9" s="8"/>
+      <c r="FO9" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="FP9" s="5"/>
-      <c r="FQ9" s="4" t="s">
+      <c r="FP9" s="8"/>
+      <c r="FQ9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="FR9" s="5"/>
-      <c r="FS9" s="4" t="s">
+      <c r="FR9" s="8"/>
+      <c r="FS9" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="FT9" s="5"/>
+      <c r="FT9" s="8"/>
       <c r="FU9" s="3" t="s">
         <v>229</v>
       </c>
@@ -5578,60 +5578,60 @@
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
-      <c r="CB10" s="4" t="s">
+      <c r="CB10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="CC10" s="5"/>
+      <c r="CC10" s="8"/>
       <c r="CD10" s="3"/>
       <c r="CE10" s="3"/>
       <c r="CF10" s="3"/>
       <c r="CG10" s="3"/>
-      <c r="CH10" s="4" t="s">
+      <c r="CH10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="CI10" s="5"/>
-      <c r="CJ10" s="4" t="s">
+      <c r="CI10" s="8"/>
+      <c r="CJ10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="4" t="s">
+      <c r="CK10" s="8"/>
+      <c r="CL10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="4" t="s">
+      <c r="CM10" s="8"/>
+      <c r="CN10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="CO10" s="5"/>
-      <c r="CP10" s="4" t="s">
+      <c r="CO10" s="8"/>
+      <c r="CP10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="4" t="s">
+      <c r="CQ10" s="8"/>
+      <c r="CR10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="CS10" s="5"/>
+      <c r="CS10" s="8"/>
       <c r="CT10" s="3"/>
       <c r="CU10" s="3"/>
-      <c r="CV10" s="4" t="s">
+      <c r="CV10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="CW10" s="5"/>
+      <c r="CW10" s="8"/>
       <c r="CX10" s="3"/>
       <c r="CY10" s="3"/>
-      <c r="CZ10" s="4" t="s">
+      <c r="CZ10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="DA10" s="5"/>
-      <c r="DB10" s="4" t="s">
+      <c r="DA10" s="8"/>
+      <c r="DB10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="DC10" s="5"/>
+      <c r="DC10" s="8"/>
       <c r="DD10" s="3"/>
       <c r="DE10" s="3"/>
-      <c r="DF10" s="4" t="s">
+      <c r="DF10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="DG10" s="5"/>
+      <c r="DG10" s="8"/>
       <c r="DH10" s="3"/>
       <c r="DI10" s="3"/>
       <c r="DJ10" s="3"/>
@@ -5646,64 +5646,64 @@
       <c r="DS10" s="3"/>
       <c r="DT10" s="3"/>
       <c r="DU10" s="3"/>
-      <c r="EA10" s="4" t="s">
+      <c r="EA10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="EB10" s="5"/>
-      <c r="EC10" s="4" t="s">
+      <c r="EB10" s="8"/>
+      <c r="EC10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="ED10" s="5"/>
-      <c r="EE10" s="4" t="s">
+      <c r="ED10" s="8"/>
+      <c r="EE10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="EF10" s="5"/>
-      <c r="EG10" s="4" t="s">
+      <c r="EF10" s="8"/>
+      <c r="EG10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="EH10" s="5"/>
-      <c r="EI10" s="4" t="s">
+      <c r="EH10" s="8"/>
+      <c r="EI10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="EJ10" s="5"/>
-      <c r="EK10" s="4" t="s">
+      <c r="EJ10" s="8"/>
+      <c r="EK10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="EL10" s="5"/>
+      <c r="EL10" s="8"/>
       <c r="EM10" s="3"/>
       <c r="EN10" s="3"/>
-      <c r="EO10" s="4" t="s">
+      <c r="EO10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="EP10" s="5"/>
-      <c r="EQ10" s="4" t="s">
+      <c r="EP10" s="8"/>
+      <c r="EQ10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="ER10" s="5"/>
+      <c r="ER10" s="8"/>
       <c r="ES10" s="3"/>
       <c r="ET10" s="3"/>
-      <c r="EU10" s="4" t="s">
+      <c r="EU10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="EV10" s="5"/>
-      <c r="EW10" s="4" t="s">
+      <c r="EV10" s="8"/>
+      <c r="EW10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="EX10" s="5"/>
+      <c r="EX10" s="8"/>
       <c r="EY10" s="3"/>
       <c r="EZ10" s="3"/>
       <c r="FA10" s="3"/>
       <c r="FB10" s="3"/>
-      <c r="FC10" s="4" t="s">
+      <c r="FC10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="FD10" s="5"/>
+      <c r="FD10" s="8"/>
       <c r="FE10" s="3"/>
       <c r="FF10" s="3"/>
-      <c r="FG10" s="4" t="s">
+      <c r="FG10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="FH10" s="5"/>
+      <c r="FH10" s="8"/>
       <c r="FI10" s="3"/>
       <c r="FJ10" s="3"/>
       <c r="FK10" s="3"/>
@@ -5712,10 +5712,10 @@
       <c r="FN10" s="3"/>
       <c r="FO10" s="3"/>
       <c r="FP10" s="3"/>
-      <c r="FQ10" s="4" t="s">
+      <c r="FQ10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="FR10" s="5"/>
+      <c r="FR10" s="8"/>
       <c r="FS10" s="3"/>
       <c r="FT10" s="3"/>
       <c r="FU10" s="3" t="s">
@@ -5771,11 +5771,11 @@
       <c r="BH11" t="s">
         <v>286</v>
       </c>
-      <c r="BJ11" s="4" t="s">
+      <c r="BJ11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
       <c r="BO11" s="3"/>
@@ -5789,53 +5789,53 @@
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
-      <c r="BZ11" s="4" t="s">
+      <c r="BZ11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="CA11" s="5"/>
+      <c r="CA11" s="8"/>
       <c r="CB11" s="3"/>
       <c r="CC11" s="3"/>
-      <c r="CD11" s="4" t="s">
+      <c r="CD11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="CE11" s="5"/>
-      <c r="CF11" s="4" t="s">
+      <c r="CE11" s="8"/>
+      <c r="CF11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="CG11" s="5"/>
-      <c r="CH11" s="4" t="s">
+      <c r="CG11" s="8"/>
+      <c r="CH11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="CI11" s="5"/>
-      <c r="CJ11" s="4" t="s">
+      <c r="CI11" s="8"/>
+      <c r="CJ11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="CK11" s="5"/>
-      <c r="CL11" s="4" t="s">
+      <c r="CK11" s="8"/>
+      <c r="CL11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="4" t="s">
+      <c r="CM11" s="8"/>
+      <c r="CN11" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="CO11" s="5"/>
-      <c r="CP11" s="4" t="s">
+      <c r="CO11" s="8"/>
+      <c r="CP11" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="CQ11" s="5"/>
-      <c r="CR11" s="4" t="s">
+      <c r="CQ11" s="8"/>
+      <c r="CR11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="CS11" s="5"/>
+      <c r="CS11" s="8"/>
       <c r="CT11" s="3"/>
       <c r="CU11" s="3"/>
       <c r="CV11" s="3"/>
       <c r="CW11" s="3"/>
-      <c r="CX11" s="4" t="s">
+      <c r="CX11" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="CY11" s="5"/>
-      <c r="CZ11" s="5"/>
+      <c r="CY11" s="8"/>
+      <c r="CZ11" s="8"/>
       <c r="DA11" s="3"/>
       <c r="DB11" s="3"/>
       <c r="DC11" s="3"/>
@@ -5857,34 +5857,34 @@
       <c r="DS11" s="3"/>
       <c r="DT11" s="3"/>
       <c r="DU11" s="3"/>
-      <c r="EA11" s="4" t="s">
+      <c r="EA11" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="EB11" s="5"/>
-      <c r="EC11" s="4" t="s">
+      <c r="EB11" s="8"/>
+      <c r="EC11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="ED11" s="5"/>
-      <c r="EE11" s="4" t="s">
+      <c r="ED11" s="8"/>
+      <c r="EE11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="EF11" s="5"/>
-      <c r="EG11" s="4" t="s">
+      <c r="EF11" s="8"/>
+      <c r="EG11" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="EH11" s="5"/>
-      <c r="EI11" s="4" t="s">
+      <c r="EH11" s="8"/>
+      <c r="EI11" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="EJ11" s="5"/>
-      <c r="EK11" s="4" t="s">
+      <c r="EJ11" s="8"/>
+      <c r="EK11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="EL11" s="5"/>
-      <c r="EM11" s="4" t="s">
+      <c r="EL11" s="8"/>
+      <c r="EM11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="EN11" s="5"/>
+      <c r="EN11" s="8"/>
       <c r="EO11" s="3"/>
       <c r="EP11" s="3"/>
       <c r="EQ11" s="3"/>
@@ -5895,42 +5895,42 @@
       <c r="EV11" s="3"/>
       <c r="EW11" s="3"/>
       <c r="EX11" s="3"/>
-      <c r="EY11" s="4" t="s">
+      <c r="EY11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="EZ11" s="5"/>
-      <c r="FA11" s="4" t="s">
+      <c r="EZ11" s="8"/>
+      <c r="FA11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="FB11" s="5"/>
+      <c r="FB11" s="8"/>
       <c r="FC11" s="3"/>
       <c r="FD11" s="3"/>
-      <c r="FE11" s="4" t="s">
+      <c r="FE11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="FF11" s="5"/>
-      <c r="FG11" s="4" t="s">
+      <c r="FF11" s="8"/>
+      <c r="FG11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="FH11" s="5"/>
-      <c r="FI11" s="4" t="s">
+      <c r="FH11" s="8"/>
+      <c r="FI11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="FJ11" s="5"/>
+      <c r="FJ11" s="8"/>
       <c r="FK11" s="3"/>
       <c r="FL11" s="3"/>
       <c r="FM11" s="3"/>
       <c r="FN11" s="3"/>
-      <c r="FO11" s="4" t="s">
+      <c r="FO11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="FP11" s="5"/>
+      <c r="FP11" s="8"/>
       <c r="FQ11" s="3"/>
       <c r="FR11" s="3"/>
-      <c r="FS11" s="4" t="s">
+      <c r="FS11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="FT11" s="5"/>
+      <c r="FT11" s="8"/>
       <c r="FU11" s="3" t="s">
         <v>300</v>
       </c>
@@ -5998,45 +5998,45 @@
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
       <c r="BW12" s="3"/>
-      <c r="BX12" s="4" t="s">
+      <c r="BX12" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
+      <c r="BY12" s="8"/>
+      <c r="BZ12" s="8"/>
       <c r="CA12" s="3"/>
-      <c r="CB12" s="4" t="s">
+      <c r="CB12" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="CC12" s="5"/>
-      <c r="CD12" s="5"/>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="8"/>
       <c r="CE12" s="3"/>
       <c r="CF12" s="3"/>
       <c r="CG12" s="3"/>
-      <c r="CH12" s="4" t="s">
+      <c r="CH12" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="CI12" s="5"/>
-      <c r="CJ12" s="4" t="s">
+      <c r="CI12" s="8"/>
+      <c r="CJ12" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="CK12" s="5"/>
-      <c r="CL12" s="4" t="s">
+      <c r="CK12" s="8"/>
+      <c r="CL12" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="CM12" s="5"/>
-      <c r="CN12" s="4" t="s">
+      <c r="CM12" s="8"/>
+      <c r="CN12" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="CO12" s="5"/>
-      <c r="CP12" s="4" t="s">
+      <c r="CO12" s="8"/>
+      <c r="CP12" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="CQ12" s="5"/>
-      <c r="CR12" s="4" t="s">
+      <c r="CQ12" s="8"/>
+      <c r="CR12" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="CS12" s="5"/>
-      <c r="CT12" s="5"/>
+      <c r="CS12" s="8"/>
+      <c r="CT12" s="8"/>
       <c r="CU12" s="3"/>
       <c r="CV12" s="3"/>
       <c r="CW12" s="3"/>
@@ -6046,11 +6046,11 @@
       <c r="DA12" s="3"/>
       <c r="DB12" s="3"/>
       <c r="DC12" s="3"/>
-      <c r="DD12" s="4" t="s">
+      <c r="DD12" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="DE12" s="5"/>
-      <c r="DF12" s="5"/>
+      <c r="DE12" s="8"/>
+      <c r="DF12" s="8"/>
       <c r="DG12" s="3"/>
       <c r="DH12" s="3"/>
       <c r="DI12" s="3"/>
@@ -6058,11 +6058,11 @@
       <c r="DK12" s="3"/>
       <c r="DL12" s="3"/>
       <c r="DM12" s="3"/>
-      <c r="DN12" s="4" t="s">
+      <c r="DN12" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="DO12" s="5"/>
-      <c r="DP12" s="5"/>
+      <c r="DO12" s="8"/>
+      <c r="DP12" s="8"/>
       <c r="DQ12" s="3"/>
       <c r="DR12" s="3"/>
       <c r="DS12" s="3"/>
@@ -6070,82 +6070,82 @@
       <c r="DU12" s="3"/>
       <c r="EA12" s="3"/>
       <c r="EB12" s="3"/>
-      <c r="EC12" s="4" t="s">
+      <c r="EC12" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="ED12" s="5"/>
-      <c r="EE12" s="4" t="s">
+      <c r="ED12" s="8"/>
+      <c r="EE12" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="EF12" s="5"/>
-      <c r="EG12" s="4" t="s">
+      <c r="EF12" s="8"/>
+      <c r="EG12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="EH12" s="5"/>
-      <c r="EI12" s="4" t="s">
+      <c r="EH12" s="8"/>
+      <c r="EI12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="EJ12" s="5"/>
-      <c r="EK12" s="4" t="s">
+      <c r="EJ12" s="8"/>
+      <c r="EK12" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="EL12" s="5"/>
-      <c r="EM12" s="4" t="s">
+      <c r="EL12" s="8"/>
+      <c r="EM12" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="EN12" s="5"/>
-      <c r="EO12" s="4" t="s">
+      <c r="EN12" s="8"/>
+      <c r="EO12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="EP12" s="5"/>
-      <c r="EQ12" s="4" t="s">
+      <c r="EP12" s="8"/>
+      <c r="EQ12" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="ER12" s="5"/>
-      <c r="ES12" s="4" t="s">
+      <c r="ER12" s="8"/>
+      <c r="ES12" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="ET12" s="5"/>
-      <c r="EU12" s="4" t="s">
+      <c r="ET12" s="8"/>
+      <c r="EU12" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="EV12" s="5"/>
-      <c r="EW12" s="5"/>
+      <c r="EV12" s="8"/>
+      <c r="EW12" s="8"/>
       <c r="EX12" s="3"/>
       <c r="EY12" s="3"/>
       <c r="EZ12" s="3"/>
       <c r="FA12" s="3"/>
       <c r="FB12" s="3"/>
-      <c r="FC12" s="4"/>
-      <c r="FD12" s="5"/>
-      <c r="FE12" s="4" t="s">
+      <c r="FC12" s="7"/>
+      <c r="FD12" s="8"/>
+      <c r="FE12" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="FF12" s="5"/>
-      <c r="FG12" s="4" t="s">
+      <c r="FF12" s="8"/>
+      <c r="FG12" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="FH12" s="5"/>
-      <c r="FI12" s="4" t="s">
+      <c r="FH12" s="8"/>
+      <c r="FI12" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="FJ12" s="5"/>
-      <c r="FK12" s="4" t="s">
+      <c r="FJ12" s="8"/>
+      <c r="FK12" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="FL12" s="5"/>
-      <c r="FM12" s="4" t="s">
+      <c r="FL12" s="8"/>
+      <c r="FM12" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="FN12" s="5"/>
-      <c r="FO12" s="5"/>
+      <c r="FN12" s="8"/>
+      <c r="FO12" s="8"/>
       <c r="FP12" s="3"/>
       <c r="FQ12" s="3"/>
       <c r="FR12" s="3"/>
-      <c r="FS12" s="4" t="s">
+      <c r="FS12" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="FT12" s="5"/>
+      <c r="FT12" s="8"/>
       <c r="FU12" s="3"/>
     </row>
     <row r="13" spans="1:182" ht="15" x14ac:dyDescent="0.25">
@@ -6197,14 +6197,14 @@
       <c r="BH13" t="s">
         <v>346</v>
       </c>
-      <c r="BJ13" s="4" t="s">
+      <c r="BJ13" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="4" t="s">
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="BM13" s="5"/>
+      <c r="BM13" s="8"/>
       <c r="BN13" s="3" t="s">
         <v>348</v>
       </c>
@@ -6229,34 +6229,34 @@
       <c r="CG13" s="3"/>
       <c r="CH13" s="3"/>
       <c r="CI13" s="3"/>
-      <c r="CJ13" s="4" t="s">
+      <c r="CJ13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="4" t="s">
+      <c r="CK13" s="8"/>
+      <c r="CL13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="4" t="s">
+      <c r="CM13" s="8"/>
+      <c r="CN13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="CO13" s="5"/>
-      <c r="CP13" s="4" t="s">
+      <c r="CO13" s="8"/>
+      <c r="CP13" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="CQ13" s="5"/>
-      <c r="CR13" s="4" t="s">
+      <c r="CQ13" s="8"/>
+      <c r="CR13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="CS13" s="5"/>
-      <c r="CT13" s="4" t="s">
+      <c r="CS13" s="8"/>
+      <c r="CT13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="CU13" s="5"/>
-      <c r="CV13" s="4" t="s">
+      <c r="CU13" s="8"/>
+      <c r="CV13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="CW13" s="5"/>
+      <c r="CW13" s="8"/>
       <c r="CX13" s="3"/>
       <c r="CY13" s="3"/>
       <c r="CZ13" s="3"/>
@@ -6265,68 +6265,68 @@
       <c r="DC13" s="3"/>
       <c r="DD13" s="3"/>
       <c r="DE13" s="3"/>
-      <c r="DF13" s="4" t="s">
+      <c r="DF13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="DG13" s="5"/>
-      <c r="DH13" s="4" t="s">
+      <c r="DG13" s="8"/>
+      <c r="DH13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="DI13" s="5"/>
-      <c r="DJ13" s="4" t="s">
+      <c r="DI13" s="8"/>
+      <c r="DJ13" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="DK13" s="5"/>
-      <c r="DL13" s="4" t="s">
+      <c r="DK13" s="8"/>
+      <c r="DL13" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="DM13" s="5"/>
+      <c r="DM13" s="8"/>
       <c r="DN13" s="3"/>
       <c r="DO13" s="3"/>
       <c r="DP13" s="3"/>
       <c r="DQ13" s="3"/>
       <c r="DR13" s="3"/>
       <c r="DS13" s="3"/>
-      <c r="DT13" s="4" t="s">
+      <c r="DT13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="DU13" s="5"/>
+      <c r="DU13" s="8"/>
       <c r="EA13" s="3"/>
       <c r="EB13" s="3"/>
       <c r="EC13" s="3"/>
       <c r="ED13" s="3"/>
-      <c r="EE13" s="4" t="s">
+      <c r="EE13" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="EF13" s="5"/>
-      <c r="EG13" s="4" t="s">
+      <c r="EF13" s="8"/>
+      <c r="EG13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="EH13" s="5"/>
-      <c r="EI13" s="4" t="s">
+      <c r="EH13" s="8"/>
+      <c r="EI13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="EJ13" s="5"/>
-      <c r="EK13" s="4" t="s">
+      <c r="EJ13" s="8"/>
+      <c r="EK13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="EL13" s="5"/>
-      <c r="EM13" s="4" t="s">
+      <c r="EL13" s="8"/>
+      <c r="EM13" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="EN13" s="5"/>
-      <c r="EO13" s="4" t="s">
+      <c r="EN13" s="8"/>
+      <c r="EO13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="EP13" s="5"/>
-      <c r="EQ13" s="4" t="s">
+      <c r="EP13" s="8"/>
+      <c r="EQ13" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="ER13" s="5"/>
-      <c r="ES13" s="4" t="s">
+      <c r="ER13" s="8"/>
+      <c r="ES13" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="ET13" s="5"/>
+      <c r="ET13" s="8"/>
       <c r="EU13" s="3"/>
       <c r="EV13" s="3"/>
       <c r="EW13" s="3"/>
@@ -6337,25 +6337,25 @@
       <c r="FB13" s="3"/>
       <c r="FC13" s="3"/>
       <c r="FD13" s="3"/>
-      <c r="FE13" s="4" t="s">
+      <c r="FE13" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="FF13" s="5"/>
-      <c r="FG13" s="4" t="s">
+      <c r="FF13" s="8"/>
+      <c r="FG13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="FH13" s="5"/>
+      <c r="FH13" s="8"/>
       <c r="FI13" s="3"/>
       <c r="FJ13" s="3"/>
       <c r="FK13" s="3"/>
       <c r="FL13" s="3"/>
       <c r="FM13" s="3"/>
       <c r="FN13" s="3"/>
-      <c r="FO13" s="4" t="s">
+      <c r="FO13" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="FP13" s="5"/>
-      <c r="FQ13" s="5"/>
+      <c r="FP13" s="8"/>
+      <c r="FQ13" s="8"/>
       <c r="FR13" s="3"/>
       <c r="FS13" s="3"/>
       <c r="FT13" s="3"/>
@@ -6410,18 +6410,18 @@
       <c r="BH14" t="s">
         <v>376</v>
       </c>
-      <c r="BJ14" s="4" t="s">
+      <c r="BJ14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="4" t="s">
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="4" t="s">
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="BO14" s="5"/>
+      <c r="BO14" s="8"/>
       <c r="BP14" s="3" t="s">
         <v>380</v>
       </c>
@@ -6430,11 +6430,11 @@
         <v>381</v>
       </c>
       <c r="BS14" s="3"/>
-      <c r="BT14" s="4" t="s">
+      <c r="BT14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="BU14" s="5"/>
-      <c r="BV14" s="5"/>
+      <c r="BU14" s="8"/>
+      <c r="BV14" s="8"/>
       <c r="BW14" s="3"/>
       <c r="BX14" s="3"/>
       <c r="BY14" s="3"/>
@@ -6444,67 +6444,67 @@
       <c r="CC14" s="3"/>
       <c r="CD14" s="3"/>
       <c r="CE14" s="3"/>
-      <c r="CF14" s="4" t="s">
+      <c r="CF14" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="CG14" s="5"/>
-      <c r="CH14" s="5"/>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="8"/>
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3"/>
       <c r="CL14" s="3"/>
       <c r="CM14" s="3"/>
-      <c r="CN14" s="4" t="s">
+      <c r="CN14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="CO14" s="5"/>
-      <c r="CP14" s="4" t="s">
+      <c r="CO14" s="8"/>
+      <c r="CP14" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="CQ14" s="5"/>
-      <c r="CR14" s="4" t="s">
+      <c r="CQ14" s="8"/>
+      <c r="CR14" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="CS14" s="5"/>
-      <c r="CT14" s="4" t="s">
+      <c r="CS14" s="8"/>
+      <c r="CT14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="CU14" s="5"/>
+      <c r="CU14" s="8"/>
       <c r="CV14" s="3"/>
       <c r="CW14" s="3"/>
       <c r="CX14" s="3"/>
       <c r="CY14" s="3"/>
       <c r="CZ14" s="3"/>
       <c r="DA14" s="3"/>
-      <c r="DB14" s="4" t="s">
+      <c r="DB14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="DC14" s="5"/>
-      <c r="DD14" s="4" t="s">
+      <c r="DC14" s="8"/>
+      <c r="DD14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="DE14" s="5"/>
-      <c r="DF14" s="5"/>
+      <c r="DE14" s="8"/>
+      <c r="DF14" s="8"/>
       <c r="DG14" s="3"/>
-      <c r="DH14" s="4" t="s">
+      <c r="DH14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="DI14" s="5"/>
-      <c r="DJ14" s="4" t="s">
+      <c r="DI14" s="8"/>
+      <c r="DJ14" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="DK14" s="5"/>
-      <c r="DL14" s="4" t="s">
+      <c r="DK14" s="8"/>
+      <c r="DL14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="DM14" s="5"/>
-      <c r="DN14" s="5"/>
+      <c r="DM14" s="8"/>
+      <c r="DN14" s="8"/>
       <c r="DO14" s="3"/>
-      <c r="DP14" s="4" t="s">
+      <c r="DP14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="DQ14" s="5"/>
-      <c r="DR14" s="5"/>
+      <c r="DQ14" s="8"/>
+      <c r="DR14" s="8"/>
       <c r="DS14" s="3"/>
       <c r="DT14" s="3"/>
       <c r="DU14" s="3"/>
@@ -6520,32 +6520,32 @@
       <c r="EJ14" s="3"/>
       <c r="EK14" s="3"/>
       <c r="EL14" s="3"/>
-      <c r="EM14" s="4" t="s">
+      <c r="EM14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="EN14" s="5"/>
-      <c r="EO14" s="4" t="s">
+      <c r="EN14" s="8"/>
+      <c r="EO14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="EP14" s="5"/>
-      <c r="EQ14" s="5"/>
+      <c r="EP14" s="8"/>
+      <c r="EQ14" s="8"/>
       <c r="ER14" s="3"/>
-      <c r="ES14" s="4" t="s">
+      <c r="ES14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="ET14" s="5"/>
-      <c r="EU14" s="4" t="s">
+      <c r="ET14" s="8"/>
+      <c r="EU14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="EV14" s="5"/>
-      <c r="EW14" s="4" t="s">
+      <c r="EV14" s="8"/>
+      <c r="EW14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="EX14" s="5"/>
-      <c r="EY14" s="4" t="s">
+      <c r="EX14" s="8"/>
+      <c r="EY14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="EZ14" s="5"/>
+      <c r="EZ14" s="8"/>
       <c r="FA14" s="3"/>
       <c r="FB14" s="3"/>
       <c r="FC14" s="3"/>
@@ -6558,17 +6558,17 @@
       <c r="FJ14" s="3"/>
       <c r="FK14" s="3"/>
       <c r="FL14" s="3"/>
-      <c r="FM14" s="4" t="s">
+      <c r="FM14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="FN14" s="5"/>
+      <c r="FN14" s="8"/>
       <c r="FO14" s="3"/>
       <c r="FP14" s="3"/>
-      <c r="FQ14" s="4" t="s">
+      <c r="FQ14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="FR14" s="5"/>
-      <c r="FS14" s="5"/>
+      <c r="FR14" s="8"/>
+      <c r="FS14" s="8"/>
       <c r="FT14" s="3"/>
       <c r="FU14" s="3" t="s">
         <v>384</v>
@@ -6625,14 +6625,14 @@
       </c>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
-      <c r="BL15" s="4" t="s">
+      <c r="BL15" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="BM15" s="5"/>
-      <c r="BN15" s="4" t="s">
+      <c r="BM15" s="8"/>
+      <c r="BN15" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="BO15" s="5"/>
+      <c r="BO15" s="8"/>
       <c r="BP15" s="3" t="s">
         <v>409</v>
       </c>
@@ -6647,11 +6647,11 @@
       <c r="BW15" s="3"/>
       <c r="BX15" s="3"/>
       <c r="BY15" s="3"/>
-      <c r="BZ15" s="4" t="s">
+      <c r="BZ15" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="CA15" s="5"/>
-      <c r="CB15" s="5"/>
+      <c r="CA15" s="8"/>
+      <c r="CB15" s="8"/>
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
       <c r="CE15" s="3"/>
@@ -6665,108 +6665,108 @@
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
-      <c r="CP15" s="4" t="s">
+      <c r="CP15" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="CQ15" s="5"/>
-      <c r="CR15" s="4" t="s">
+      <c r="CQ15" s="8"/>
+      <c r="CR15" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="CS15" s="5"/>
-      <c r="CT15" s="4" t="s">
+      <c r="CS15" s="8"/>
+      <c r="CT15" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="CU15" s="5"/>
-      <c r="CV15" s="4" t="s">
+      <c r="CU15" s="8"/>
+      <c r="CV15" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="CW15" s="5"/>
-      <c r="CX15" s="4" t="s">
+      <c r="CW15" s="8"/>
+      <c r="CX15" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="CY15" s="5"/>
-      <c r="CZ15" s="4" t="s">
+      <c r="CY15" s="8"/>
+      <c r="CZ15" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="DA15" s="5"/>
+      <c r="DA15" s="8"/>
       <c r="DB15" s="3"/>
       <c r="DC15" s="3"/>
       <c r="DD15" s="3"/>
       <c r="DE15" s="3"/>
-      <c r="DF15" s="4" t="s">
+      <c r="DF15" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="DG15" s="5"/>
-      <c r="DH15" s="5"/>
+      <c r="DG15" s="8"/>
+      <c r="DH15" s="8"/>
       <c r="DI15" s="3"/>
-      <c r="DJ15" s="4" t="s">
+      <c r="DJ15" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="DK15" s="5"/>
+      <c r="DK15" s="8"/>
       <c r="DL15" s="3"/>
       <c r="DM15" s="3"/>
       <c r="DN15" s="3"/>
       <c r="DO15" s="3"/>
       <c r="DP15" s="3"/>
       <c r="DQ15" s="3"/>
-      <c r="DR15" s="4" t="s">
+      <c r="DR15" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="DS15" s="5"/>
-      <c r="DT15" s="5"/>
+      <c r="DS15" s="8"/>
+      <c r="DT15" s="8"/>
       <c r="DU15" s="3"/>
       <c r="EA15" s="3"/>
       <c r="EB15" s="3"/>
-      <c r="EC15" s="4" t="s">
+      <c r="EC15" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="ED15" s="5"/>
-      <c r="EE15" s="4" t="s">
+      <c r="ED15" s="8"/>
+      <c r="EE15" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="EF15" s="5"/>
-      <c r="EG15" s="4" t="s">
+      <c r="EF15" s="8"/>
+      <c r="EG15" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="EH15" s="5"/>
-      <c r="EI15" s="4" t="s">
+      <c r="EH15" s="8"/>
+      <c r="EI15" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="EJ15" s="5"/>
-      <c r="EK15" s="4" t="s">
+      <c r="EJ15" s="8"/>
+      <c r="EK15" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="EL15" s="5"/>
-      <c r="EM15" s="4"/>
-      <c r="EN15" s="5"/>
-      <c r="EO15" s="4" t="s">
+      <c r="EL15" s="8"/>
+      <c r="EM15" s="7"/>
+      <c r="EN15" s="8"/>
+      <c r="EO15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="EP15" s="5"/>
-      <c r="EQ15" s="4" t="s">
+      <c r="EP15" s="8"/>
+      <c r="EQ15" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="ER15" s="5"/>
-      <c r="ES15" s="4" t="s">
+      <c r="ER15" s="8"/>
+      <c r="ES15" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="ET15" s="5"/>
-      <c r="EU15" s="4" t="s">
+      <c r="ET15" s="8"/>
+      <c r="EU15" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="EV15" s="5"/>
-      <c r="EW15" s="4" t="s">
+      <c r="EV15" s="8"/>
+      <c r="EW15" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="EX15" s="5"/>
-      <c r="EY15" s="4" t="s">
+      <c r="EX15" s="8"/>
+      <c r="EY15" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="EZ15" s="5"/>
-      <c r="FA15" s="4" t="s">
+      <c r="EZ15" s="8"/>
+      <c r="FA15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="FB15" s="5"/>
+      <c r="FB15" s="8"/>
       <c r="FC15" s="3"/>
       <c r="FD15" s="3"/>
       <c r="FE15" s="3"/>
@@ -6840,10 +6840,10 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
-      <c r="BN16" s="4" t="s">
+      <c r="BN16" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="BO16" s="5"/>
+      <c r="BO16" s="8"/>
       <c r="BP16" s="3" t="s">
         <v>438</v>
       </c>
@@ -6852,19 +6852,19 @@
         <v>439</v>
       </c>
       <c r="BS16" s="3"/>
-      <c r="BT16" s="4" t="s">
+      <c r="BT16" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="BU16" s="5"/>
-      <c r="BV16" s="4" t="s">
+      <c r="BU16" s="8"/>
+      <c r="BV16" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="BW16" s="5"/>
-      <c r="BX16" s="4" t="s">
+      <c r="BW16" s="8"/>
+      <c r="BX16" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="BY16" s="5"/>
-      <c r="BZ16" s="5"/>
+      <c r="BY16" s="8"/>
+      <c r="BZ16" s="8"/>
       <c r="CA16" s="3"/>
       <c r="CB16" s="3"/>
       <c r="CC16" s="3"/>
@@ -6882,31 +6882,31 @@
       <c r="CO16" s="3"/>
       <c r="CP16" s="3"/>
       <c r="CQ16" s="3"/>
-      <c r="CR16" s="4" t="s">
+      <c r="CR16" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="CS16" s="5"/>
-      <c r="CT16" s="4" t="s">
+      <c r="CS16" s="8"/>
+      <c r="CT16" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="CU16" s="5"/>
-      <c r="CV16" s="4" t="s">
+      <c r="CU16" s="8"/>
+      <c r="CV16" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="CW16" s="5"/>
-      <c r="CX16" s="4" t="s">
+      <c r="CW16" s="8"/>
+      <c r="CX16" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="CY16" s="5"/>
-      <c r="CZ16" s="4" t="s">
+      <c r="CY16" s="8"/>
+      <c r="CZ16" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="DA16" s="5"/>
-      <c r="DB16" s="4" t="s">
+      <c r="DA16" s="8"/>
+      <c r="DB16" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="DC16" s="5"/>
-      <c r="DD16" s="5"/>
+      <c r="DC16" s="8"/>
+      <c r="DD16" s="8"/>
       <c r="DE16" s="3"/>
       <c r="DF16" s="3"/>
       <c r="DG16" s="3"/>
@@ -6916,77 +6916,77 @@
       <c r="DK16" s="3"/>
       <c r="DL16" s="3"/>
       <c r="DM16" s="3"/>
-      <c r="DN16" s="4" t="s">
+      <c r="DN16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="DO16" s="5"/>
-      <c r="DP16" s="4" t="s">
+      <c r="DO16" s="8"/>
+      <c r="DP16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="DQ16" s="5"/>
-      <c r="DR16" s="4" t="s">
+      <c r="DQ16" s="8"/>
+      <c r="DR16" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="DS16" s="5"/>
-      <c r="DT16" s="4" t="s">
+      <c r="DS16" s="8"/>
+      <c r="DT16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="DU16" s="5"/>
-      <c r="EA16" s="4" t="s">
+      <c r="DU16" s="8"/>
+      <c r="EA16" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="EB16" s="5"/>
+      <c r="EB16" s="8"/>
       <c r="EC16" s="3"/>
       <c r="ED16" s="3"/>
       <c r="EE16" s="3"/>
       <c r="EF16" s="3"/>
       <c r="EG16" s="3"/>
       <c r="EH16" s="3"/>
-      <c r="EI16" s="4" t="s">
+      <c r="EI16" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="EJ16" s="5"/>
-      <c r="EK16" s="5"/>
+      <c r="EJ16" s="8"/>
+      <c r="EK16" s="8"/>
       <c r="EL16" s="3"/>
       <c r="EM16" s="3"/>
       <c r="EN16" s="3"/>
       <c r="EO16" s="3"/>
       <c r="EP16" s="3"/>
-      <c r="EQ16" s="4" t="s">
+      <c r="EQ16" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="ER16" s="5"/>
-      <c r="ES16" s="4" t="s">
+      <c r="ER16" s="8"/>
+      <c r="ES16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="ET16" s="5"/>
-      <c r="EU16" s="4" t="s">
+      <c r="ET16" s="8"/>
+      <c r="EU16" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="EV16" s="5"/>
-      <c r="EW16" s="4" t="s">
+      <c r="EV16" s="8"/>
+      <c r="EW16" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="EX16" s="5"/>
-      <c r="EY16" s="4" t="s">
+      <c r="EX16" s="8"/>
+      <c r="EY16" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="EZ16" s="5"/>
-      <c r="FA16" s="4" t="s">
+      <c r="EZ16" s="8"/>
+      <c r="FA16" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="FB16" s="5"/>
+      <c r="FB16" s="8"/>
       <c r="FC16" s="3"/>
       <c r="FD16" s="3"/>
       <c r="FE16" s="3"/>
       <c r="FF16" s="3"/>
       <c r="FG16" s="3"/>
       <c r="FH16" s="3"/>
-      <c r="FI16" s="4" t="s">
+      <c r="FI16" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="FJ16" s="5"/>
-      <c r="FK16" s="5"/>
+      <c r="FJ16" s="8"/>
+      <c r="FK16" s="8"/>
       <c r="FL16" s="3"/>
       <c r="FM16" s="3"/>
       <c r="FN16" s="3"/>
@@ -6994,11 +6994,11 @@
       <c r="FP16" s="3"/>
       <c r="FQ16" s="3"/>
       <c r="FR16" s="3"/>
-      <c r="FS16" s="4" t="s">
+      <c r="FS16" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="FT16" s="5"/>
-      <c r="FU16" s="5"/>
+      <c r="FT16" s="8"/>
+      <c r="FU16" s="8"/>
     </row>
     <row r="17" spans="1:177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -20084,7 +20084,7 @@
       </c>
     </row>
     <row r="49" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B49">
@@ -20813,7 +20813,7 @@
       </c>
     </row>
     <row r="50" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>481</v>
       </c>
       <c r="B50">
@@ -21542,7 +21542,7 @@
       </c>
     </row>
     <row r="51" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B51">
@@ -22271,7 +22271,7 @@
       </c>
     </row>
     <row r="52" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>541</v>
       </c>
       <c r="B52">
@@ -23000,7 +23000,7 @@
       </c>
     </row>
     <row r="53" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>571</v>
       </c>
       <c r="B53">
@@ -23729,7 +23729,7 @@
       </c>
     </row>
     <row r="54" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B54">
@@ -24458,7 +24458,7 @@
       </c>
     </row>
     <row r="55" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B55">
@@ -25187,7 +25187,7 @@
       </c>
     </row>
     <row r="56" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B56">
@@ -25916,7 +25916,7 @@
       </c>
     </row>
     <row r="57" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B57">
@@ -26645,7 +26645,7 @@
       </c>
     </row>
     <row r="58" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>721</v>
       </c>
       <c r="B58">
@@ -27374,7 +27374,7 @@
       </c>
     </row>
     <row r="59" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>751</v>
       </c>
       <c r="B59">
@@ -28103,7 +28103,7 @@
       </c>
     </row>
     <row r="60" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>781</v>
       </c>
       <c r="B60">
@@ -28832,7 +28832,7 @@
       </c>
     </row>
     <row r="61" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>811</v>
       </c>
       <c r="B61">
@@ -29561,7 +29561,7 @@
       </c>
     </row>
     <row r="62" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>841</v>
       </c>
       <c r="B62">
@@ -30290,7 +30290,7 @@
       </c>
     </row>
     <row r="63" spans="1:182" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>871</v>
       </c>
       <c r="B63">
@@ -31024,7 +31024,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>903</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -33969,7 +33969,7 @@
       </c>
     </row>
     <row r="99" spans="1:97" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="6" t="s">
         <v>903</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -34155,7 +34155,7 @@
       <c r="BL99" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="BO99" s="8" t="s">
+      <c r="BO99" s="6" t="s">
         <v>935</v>
       </c>
       <c r="BP99" s="1" t="s">
@@ -37050,7 +37050,7 @@
         <v>2</v>
       </c>
       <c r="Q108">
-        <f t="shared" ref="Q108:AT108" si="63">COUNTIF($B$2:$FV39,Q75)</f>
+        <f t="shared" ref="Q108:AE108" si="63">COUNTIF($B$2:$FV39,Q75)</f>
         <v>1</v>
       </c>
       <c r="R108">
@@ -40128,7 +40128,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <f t="shared" ref="Q117:AT117" si="67">COUNTIF($B$2:$FV48,Q84)</f>
+        <f t="shared" ref="Q117:AE117" si="67">COUNTIF($B$2:$FV48,Q84)</f>
         <v>2</v>
       </c>
       <c r="R117">
@@ -43206,7 +43206,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <f t="shared" ref="Q126:AT126" si="71">COUNTIF($B$2:$FV57,Q93)</f>
+        <f t="shared" ref="Q126:AE126" si="71">COUNTIF($B$2:$FV57,Q93)</f>
         <v>2</v>
       </c>
       <c r="R126">
@@ -44633,69 +44633,282 @@
     </row>
   </sheetData>
   <mergeCells count="363">
-    <mergeCell ref="FS16:FU16"/>
-    <mergeCell ref="ES16:ET16"/>
-    <mergeCell ref="EU16:EV16"/>
-    <mergeCell ref="EW16:EX16"/>
-    <mergeCell ref="EY16:EZ16"/>
-    <mergeCell ref="FA16:FB16"/>
-    <mergeCell ref="FI16:FK16"/>
-    <mergeCell ref="DP16:DQ16"/>
-    <mergeCell ref="DR16:DS16"/>
-    <mergeCell ref="DT16:DU16"/>
-    <mergeCell ref="EA16:EB16"/>
-    <mergeCell ref="EI16:EK16"/>
-    <mergeCell ref="EQ16:ER16"/>
-    <mergeCell ref="CT16:CU16"/>
-    <mergeCell ref="CV16:CW16"/>
-    <mergeCell ref="CX16:CY16"/>
-    <mergeCell ref="CZ16:DA16"/>
-    <mergeCell ref="DB16:DD16"/>
-    <mergeCell ref="DN16:DO16"/>
-    <mergeCell ref="ES15:ET15"/>
-    <mergeCell ref="EU15:EV15"/>
-    <mergeCell ref="EW15:EX15"/>
-    <mergeCell ref="EY15:EZ15"/>
-    <mergeCell ref="FA15:FB15"/>
-    <mergeCell ref="BN16:BO16"/>
-    <mergeCell ref="BT16:BU16"/>
-    <mergeCell ref="BV16:BW16"/>
-    <mergeCell ref="BX16:BZ16"/>
-    <mergeCell ref="CR16:CS16"/>
-    <mergeCell ref="EG15:EH15"/>
-    <mergeCell ref="EI15:EJ15"/>
-    <mergeCell ref="EK15:EL15"/>
-    <mergeCell ref="EM15:EN15"/>
-    <mergeCell ref="EO15:EP15"/>
-    <mergeCell ref="EQ15:ER15"/>
-    <mergeCell ref="CZ15:DA15"/>
-    <mergeCell ref="DF15:DH15"/>
-    <mergeCell ref="DJ15:DK15"/>
-    <mergeCell ref="DR15:DT15"/>
-    <mergeCell ref="EC15:ED15"/>
-    <mergeCell ref="EE15:EF15"/>
-    <mergeCell ref="FM14:FN14"/>
-    <mergeCell ref="FQ14:FS14"/>
-    <mergeCell ref="BL15:BM15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BZ15:CB15"/>
-    <mergeCell ref="CP15:CQ15"/>
-    <mergeCell ref="CR15:CS15"/>
-    <mergeCell ref="CT15:CU15"/>
-    <mergeCell ref="CV15:CW15"/>
-    <mergeCell ref="CX15:CY15"/>
-    <mergeCell ref="EM14:EN14"/>
-    <mergeCell ref="EO14:EQ14"/>
-    <mergeCell ref="ES14:ET14"/>
-    <mergeCell ref="EU14:EV14"/>
-    <mergeCell ref="EW14:EX14"/>
-    <mergeCell ref="EY14:EZ14"/>
-    <mergeCell ref="DB14:DC14"/>
-    <mergeCell ref="DD14:DF14"/>
-    <mergeCell ref="DH14:DI14"/>
-    <mergeCell ref="DJ14:DK14"/>
-    <mergeCell ref="DL14:DN14"/>
-    <mergeCell ref="DP14:DR14"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="ES2:ET2"/>
+    <mergeCell ref="EU2:EV2"/>
+    <mergeCell ref="EW2:EX2"/>
+    <mergeCell ref="EY2:EZ2"/>
+    <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CZ2:DA2"/>
+    <mergeCell ref="DB2:DC2"/>
+    <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="DL2:DN2"/>
+    <mergeCell ref="EK2:EM2"/>
+    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="CV3:CW3"/>
+    <mergeCell ref="CX3:CY3"/>
+    <mergeCell ref="CZ3:DA3"/>
+    <mergeCell ref="FK2:FL2"/>
+    <mergeCell ref="FM2:FN2"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FQ2:FR2"/>
+    <mergeCell ref="FS2:FT2"/>
+    <mergeCell ref="FA2:FB2"/>
+    <mergeCell ref="FC2:FE2"/>
+    <mergeCell ref="FG3:FI3"/>
+    <mergeCell ref="FQ3:FR3"/>
+    <mergeCell ref="FS3:FU3"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="EM3:EN3"/>
+    <mergeCell ref="EO3:EP3"/>
+    <mergeCell ref="EU3:EW3"/>
+    <mergeCell ref="FA3:FB3"/>
+    <mergeCell ref="FC3:FD3"/>
+    <mergeCell ref="FE3:FF3"/>
+    <mergeCell ref="DB3:DC3"/>
+    <mergeCell ref="DD3:DF3"/>
+    <mergeCell ref="DH3:DJ3"/>
+    <mergeCell ref="DN3:DO3"/>
+    <mergeCell ref="DP3:DR3"/>
+    <mergeCell ref="EK3:EL3"/>
+    <mergeCell ref="CB3:CC3"/>
+    <mergeCell ref="CD3:CE3"/>
+    <mergeCell ref="FC4:FD4"/>
+    <mergeCell ref="FE4:FF4"/>
+    <mergeCell ref="FG4:FH4"/>
+    <mergeCell ref="FI4:FJ4"/>
+    <mergeCell ref="FK4:FM4"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CD5:CE5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="DL4:DM4"/>
+    <mergeCell ref="DN4:DO4"/>
+    <mergeCell ref="EM4:EN4"/>
+    <mergeCell ref="EO4:EP4"/>
+    <mergeCell ref="EY4:EZ4"/>
+    <mergeCell ref="FA4:FB4"/>
+    <mergeCell ref="CV4:CW4"/>
+    <mergeCell ref="DB4:DC4"/>
+    <mergeCell ref="DD4:DE4"/>
+    <mergeCell ref="DF4:DG4"/>
+    <mergeCell ref="DH4:DI4"/>
+    <mergeCell ref="DJ4:DK4"/>
+    <mergeCell ref="DT5:DU5"/>
+    <mergeCell ref="EA5:EB5"/>
+    <mergeCell ref="EQ5:ER5"/>
+    <mergeCell ref="FC5:FD5"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="DH5:DI5"/>
+    <mergeCell ref="DJ5:DK5"/>
+    <mergeCell ref="DL5:DM5"/>
+    <mergeCell ref="DN5:DO5"/>
+    <mergeCell ref="DP5:DQ5"/>
+    <mergeCell ref="DR5:DS5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CX5:CY5"/>
+    <mergeCell ref="CZ5:DA5"/>
+    <mergeCell ref="DB5:DC5"/>
+    <mergeCell ref="DD5:DE5"/>
+    <mergeCell ref="DF5:DG5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="DL6:DM6"/>
+    <mergeCell ref="DN6:DO6"/>
+    <mergeCell ref="DP6:DQ6"/>
+    <mergeCell ref="DR6:DS6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DF6:DG6"/>
+    <mergeCell ref="DH6:DI6"/>
+    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CL7:CN7"/>
+    <mergeCell ref="DF7:DG7"/>
+    <mergeCell ref="DH7:DI7"/>
+    <mergeCell ref="EQ6:ER6"/>
+    <mergeCell ref="FG6:FH6"/>
+    <mergeCell ref="FI6:FJ6"/>
+    <mergeCell ref="FM6:FN6"/>
+    <mergeCell ref="FO6:FP6"/>
+    <mergeCell ref="DT6:DU6"/>
+    <mergeCell ref="EC6:ED6"/>
+    <mergeCell ref="FQ7:FR7"/>
+    <mergeCell ref="FS7:FT7"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="EA7:EB7"/>
+    <mergeCell ref="EW7:EX7"/>
+    <mergeCell ref="FI7:FJ7"/>
+    <mergeCell ref="FK7:FL7"/>
+    <mergeCell ref="FM7:FN7"/>
+    <mergeCell ref="FO7:FP7"/>
+    <mergeCell ref="DJ7:DK7"/>
+    <mergeCell ref="DL7:DM7"/>
+    <mergeCell ref="DN7:DO7"/>
+    <mergeCell ref="DP7:DQ7"/>
+    <mergeCell ref="DR7:DS7"/>
+    <mergeCell ref="DT7:DU7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="FQ8:FR8"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BN9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="EC8:ED8"/>
+    <mergeCell ref="EE8:EF8"/>
+    <mergeCell ref="EG8:EH8"/>
+    <mergeCell ref="EI8:EJ8"/>
+    <mergeCell ref="EW8:EX8"/>
+    <mergeCell ref="FI8:FJ8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="DP8:DQ8"/>
+    <mergeCell ref="DR8:DS8"/>
+    <mergeCell ref="DT8:DU8"/>
+    <mergeCell ref="EA8:EB8"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="EA9:EB9"/>
+    <mergeCell ref="FK8:FL8"/>
+    <mergeCell ref="FM8:FN8"/>
+    <mergeCell ref="FO8:FP8"/>
+    <mergeCell ref="FE9:FG9"/>
+    <mergeCell ref="FK9:FL9"/>
+    <mergeCell ref="FM9:FN9"/>
+    <mergeCell ref="FO9:FP9"/>
+    <mergeCell ref="FQ9:FR9"/>
+    <mergeCell ref="FS9:FT9"/>
+    <mergeCell ref="EC9:ED9"/>
+    <mergeCell ref="EE9:EF9"/>
+    <mergeCell ref="EG9:EH9"/>
+    <mergeCell ref="EY9:EZ9"/>
+    <mergeCell ref="FA9:FB9"/>
+    <mergeCell ref="FC9:FD9"/>
+    <mergeCell ref="FC10:FD10"/>
+    <mergeCell ref="FG10:FH10"/>
+    <mergeCell ref="FQ10:FR10"/>
+    <mergeCell ref="EC10:ED10"/>
+    <mergeCell ref="EE10:EF10"/>
+    <mergeCell ref="EG10:EH10"/>
+    <mergeCell ref="EI10:EJ10"/>
+    <mergeCell ref="EK10:EL10"/>
+    <mergeCell ref="EO10:EP10"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="CD11:CE11"/>
+    <mergeCell ref="CF11:CG11"/>
+    <mergeCell ref="CH11:CI11"/>
+    <mergeCell ref="CJ11:CK11"/>
+    <mergeCell ref="EQ10:ER10"/>
+    <mergeCell ref="EU10:EV10"/>
+    <mergeCell ref="EW10:EX10"/>
+    <mergeCell ref="CR10:CS10"/>
+    <mergeCell ref="CV10:CW10"/>
+    <mergeCell ref="CZ10:DA10"/>
+    <mergeCell ref="DB10:DC10"/>
+    <mergeCell ref="DF10:DG10"/>
+    <mergeCell ref="EA10:EB10"/>
+    <mergeCell ref="CB10:CC10"/>
+    <mergeCell ref="CH10:CI10"/>
+    <mergeCell ref="CJ10:CK10"/>
+    <mergeCell ref="CL10:CM10"/>
+    <mergeCell ref="CN10:CO10"/>
+    <mergeCell ref="CP10:CQ10"/>
+    <mergeCell ref="EG11:EH11"/>
+    <mergeCell ref="EI11:EJ11"/>
+    <mergeCell ref="EK11:EL11"/>
+    <mergeCell ref="EM11:EN11"/>
+    <mergeCell ref="CL11:CM11"/>
+    <mergeCell ref="CN11:CO11"/>
+    <mergeCell ref="CP11:CQ11"/>
+    <mergeCell ref="CR11:CS11"/>
+    <mergeCell ref="CX11:CZ11"/>
+    <mergeCell ref="EA11:EB11"/>
+    <mergeCell ref="DN12:DP12"/>
+    <mergeCell ref="EC12:ED12"/>
+    <mergeCell ref="EE12:EF12"/>
+    <mergeCell ref="EG12:EH12"/>
+    <mergeCell ref="EI12:EJ12"/>
+    <mergeCell ref="EK12:EL12"/>
+    <mergeCell ref="FS11:FT11"/>
+    <mergeCell ref="BX12:BZ12"/>
+    <mergeCell ref="CB12:CD12"/>
+    <mergeCell ref="CH12:CI12"/>
+    <mergeCell ref="CJ12:CK12"/>
+    <mergeCell ref="CL12:CM12"/>
+    <mergeCell ref="CN12:CO12"/>
+    <mergeCell ref="CP12:CQ12"/>
+    <mergeCell ref="CR12:CT12"/>
+    <mergeCell ref="DD12:DF12"/>
+    <mergeCell ref="EY11:EZ11"/>
+    <mergeCell ref="FA11:FB11"/>
+    <mergeCell ref="FE11:FF11"/>
+    <mergeCell ref="FG11:FH11"/>
+    <mergeCell ref="FI11:FJ11"/>
+    <mergeCell ref="FO11:FP11"/>
+    <mergeCell ref="EC11:ED11"/>
+    <mergeCell ref="EE11:EF11"/>
+    <mergeCell ref="FE12:FF12"/>
+    <mergeCell ref="FG12:FH12"/>
+    <mergeCell ref="FI12:FJ12"/>
+    <mergeCell ref="FK12:FL12"/>
+    <mergeCell ref="FM12:FO12"/>
+    <mergeCell ref="FS12:FT12"/>
+    <mergeCell ref="EM12:EN12"/>
+    <mergeCell ref="EO12:EP12"/>
+    <mergeCell ref="EQ12:ER12"/>
+    <mergeCell ref="ES12:ET12"/>
+    <mergeCell ref="EU12:EW12"/>
+    <mergeCell ref="FC12:FD12"/>
+    <mergeCell ref="CV13:CW13"/>
+    <mergeCell ref="DF13:DG13"/>
+    <mergeCell ref="DH13:DI13"/>
+    <mergeCell ref="DJ13:DK13"/>
+    <mergeCell ref="BJ13:BK13"/>
+    <mergeCell ref="BL13:BM13"/>
+    <mergeCell ref="CJ13:CK13"/>
+    <mergeCell ref="CL13:CM13"/>
+    <mergeCell ref="CN13:CO13"/>
+    <mergeCell ref="CP13:CQ13"/>
     <mergeCell ref="FO13:FQ13"/>
     <mergeCell ref="BJ14:BK14"/>
     <mergeCell ref="BL14:BM14"/>
@@ -44720,282 +44933,69 @@
     <mergeCell ref="EK13:EL13"/>
     <mergeCell ref="CR13:CS13"/>
     <mergeCell ref="CT13:CU13"/>
-    <mergeCell ref="CV13:CW13"/>
-    <mergeCell ref="DF13:DG13"/>
-    <mergeCell ref="DH13:DI13"/>
-    <mergeCell ref="DJ13:DK13"/>
-    <mergeCell ref="BJ13:BK13"/>
-    <mergeCell ref="BL13:BM13"/>
-    <mergeCell ref="CJ13:CK13"/>
-    <mergeCell ref="CL13:CM13"/>
-    <mergeCell ref="CN13:CO13"/>
-    <mergeCell ref="CP13:CQ13"/>
-    <mergeCell ref="FE12:FF12"/>
-    <mergeCell ref="FG12:FH12"/>
-    <mergeCell ref="FI12:FJ12"/>
-    <mergeCell ref="FK12:FL12"/>
-    <mergeCell ref="FM12:FO12"/>
-    <mergeCell ref="FS12:FT12"/>
-    <mergeCell ref="EM12:EN12"/>
-    <mergeCell ref="EO12:EP12"/>
-    <mergeCell ref="EQ12:ER12"/>
-    <mergeCell ref="ES12:ET12"/>
-    <mergeCell ref="EU12:EW12"/>
-    <mergeCell ref="FC12:FD12"/>
-    <mergeCell ref="DN12:DP12"/>
-    <mergeCell ref="EC12:ED12"/>
-    <mergeCell ref="EE12:EF12"/>
-    <mergeCell ref="EG12:EH12"/>
-    <mergeCell ref="EI12:EJ12"/>
-    <mergeCell ref="EK12:EL12"/>
-    <mergeCell ref="FS11:FT11"/>
-    <mergeCell ref="BX12:BZ12"/>
-    <mergeCell ref="CB12:CD12"/>
-    <mergeCell ref="CH12:CI12"/>
-    <mergeCell ref="CJ12:CK12"/>
-    <mergeCell ref="CL12:CM12"/>
-    <mergeCell ref="CN12:CO12"/>
-    <mergeCell ref="CP12:CQ12"/>
-    <mergeCell ref="CR12:CT12"/>
-    <mergeCell ref="DD12:DF12"/>
-    <mergeCell ref="EY11:EZ11"/>
-    <mergeCell ref="FA11:FB11"/>
-    <mergeCell ref="FE11:FF11"/>
-    <mergeCell ref="FG11:FH11"/>
-    <mergeCell ref="FI11:FJ11"/>
-    <mergeCell ref="FO11:FP11"/>
-    <mergeCell ref="EC11:ED11"/>
-    <mergeCell ref="EE11:EF11"/>
-    <mergeCell ref="EG11:EH11"/>
-    <mergeCell ref="EI11:EJ11"/>
-    <mergeCell ref="EK11:EL11"/>
-    <mergeCell ref="EM11:EN11"/>
-    <mergeCell ref="CL11:CM11"/>
-    <mergeCell ref="CN11:CO11"/>
-    <mergeCell ref="CP11:CQ11"/>
-    <mergeCell ref="CR11:CS11"/>
-    <mergeCell ref="CX11:CZ11"/>
-    <mergeCell ref="EA11:EB11"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="CD11:CE11"/>
-    <mergeCell ref="CF11:CG11"/>
-    <mergeCell ref="CH11:CI11"/>
-    <mergeCell ref="CJ11:CK11"/>
-    <mergeCell ref="EQ10:ER10"/>
-    <mergeCell ref="EU10:EV10"/>
-    <mergeCell ref="EW10:EX10"/>
-    <mergeCell ref="FC10:FD10"/>
-    <mergeCell ref="FG10:FH10"/>
-    <mergeCell ref="FQ10:FR10"/>
-    <mergeCell ref="EC10:ED10"/>
-    <mergeCell ref="EE10:EF10"/>
-    <mergeCell ref="EG10:EH10"/>
-    <mergeCell ref="EI10:EJ10"/>
-    <mergeCell ref="EK10:EL10"/>
-    <mergeCell ref="EO10:EP10"/>
-    <mergeCell ref="CR10:CS10"/>
-    <mergeCell ref="CV10:CW10"/>
-    <mergeCell ref="CZ10:DA10"/>
-    <mergeCell ref="DB10:DC10"/>
-    <mergeCell ref="DF10:DG10"/>
-    <mergeCell ref="EA10:EB10"/>
-    <mergeCell ref="CB10:CC10"/>
-    <mergeCell ref="CH10:CI10"/>
-    <mergeCell ref="CJ10:CK10"/>
-    <mergeCell ref="CL10:CM10"/>
-    <mergeCell ref="CN10:CO10"/>
-    <mergeCell ref="CP10:CQ10"/>
-    <mergeCell ref="FE9:FG9"/>
-    <mergeCell ref="FK9:FL9"/>
-    <mergeCell ref="FM9:FN9"/>
-    <mergeCell ref="FO9:FP9"/>
-    <mergeCell ref="FQ9:FR9"/>
-    <mergeCell ref="FS9:FT9"/>
-    <mergeCell ref="EC9:ED9"/>
-    <mergeCell ref="EE9:EF9"/>
-    <mergeCell ref="EG9:EH9"/>
-    <mergeCell ref="EY9:EZ9"/>
-    <mergeCell ref="FA9:FB9"/>
-    <mergeCell ref="FC9:FD9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="EA9:EB9"/>
-    <mergeCell ref="FK8:FL8"/>
-    <mergeCell ref="FM8:FN8"/>
-    <mergeCell ref="FO8:FP8"/>
-    <mergeCell ref="FQ8:FR8"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BN9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="EC8:ED8"/>
-    <mergeCell ref="EE8:EF8"/>
-    <mergeCell ref="EG8:EH8"/>
-    <mergeCell ref="EI8:EJ8"/>
-    <mergeCell ref="EW8:EX8"/>
-    <mergeCell ref="FI8:FJ8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="DP8:DQ8"/>
-    <mergeCell ref="DR8:DS8"/>
-    <mergeCell ref="DT8:DU8"/>
-    <mergeCell ref="EA8:EB8"/>
-    <mergeCell ref="FQ7:FR7"/>
-    <mergeCell ref="FS7:FT7"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="EA7:EB7"/>
-    <mergeCell ref="EW7:EX7"/>
-    <mergeCell ref="FI7:FJ7"/>
-    <mergeCell ref="FK7:FL7"/>
-    <mergeCell ref="FM7:FN7"/>
-    <mergeCell ref="FO7:FP7"/>
-    <mergeCell ref="DJ7:DK7"/>
-    <mergeCell ref="DL7:DM7"/>
-    <mergeCell ref="DN7:DO7"/>
-    <mergeCell ref="DP7:DQ7"/>
-    <mergeCell ref="DR7:DS7"/>
-    <mergeCell ref="DT7:DU7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CL7:CN7"/>
-    <mergeCell ref="DF7:DG7"/>
-    <mergeCell ref="DH7:DI7"/>
-    <mergeCell ref="EQ6:ER6"/>
-    <mergeCell ref="FG6:FH6"/>
-    <mergeCell ref="FI6:FJ6"/>
-    <mergeCell ref="FM6:FN6"/>
-    <mergeCell ref="FO6:FP6"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="DL6:DM6"/>
-    <mergeCell ref="DN6:DO6"/>
-    <mergeCell ref="DP6:DQ6"/>
-    <mergeCell ref="DR6:DS6"/>
-    <mergeCell ref="DT6:DU6"/>
-    <mergeCell ref="EC6:ED6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="DF6:DG6"/>
-    <mergeCell ref="DH6:DI6"/>
-    <mergeCell ref="DJ6:DK6"/>
-    <mergeCell ref="DT5:DU5"/>
-    <mergeCell ref="EA5:EB5"/>
-    <mergeCell ref="EQ5:ER5"/>
-    <mergeCell ref="FC5:FD5"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="DH5:DI5"/>
-    <mergeCell ref="DJ5:DK5"/>
-    <mergeCell ref="DL5:DM5"/>
-    <mergeCell ref="DN5:DO5"/>
-    <mergeCell ref="DP5:DQ5"/>
-    <mergeCell ref="DR5:DS5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CX5:CY5"/>
-    <mergeCell ref="CZ5:DA5"/>
-    <mergeCell ref="DB5:DC5"/>
-    <mergeCell ref="DD5:DE5"/>
-    <mergeCell ref="DF5:DG5"/>
-    <mergeCell ref="FC4:FD4"/>
-    <mergeCell ref="FE4:FF4"/>
-    <mergeCell ref="FG4:FH4"/>
-    <mergeCell ref="FI4:FJ4"/>
-    <mergeCell ref="FK4:FM4"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CD5:CE5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="DL4:DM4"/>
-    <mergeCell ref="DN4:DO4"/>
-    <mergeCell ref="EM4:EN4"/>
-    <mergeCell ref="EO4:EP4"/>
-    <mergeCell ref="EY4:EZ4"/>
-    <mergeCell ref="FA4:FB4"/>
-    <mergeCell ref="CV4:CW4"/>
-    <mergeCell ref="DB4:DC4"/>
-    <mergeCell ref="DD4:DE4"/>
-    <mergeCell ref="DF4:DG4"/>
-    <mergeCell ref="DH4:DI4"/>
-    <mergeCell ref="DJ4:DK4"/>
-    <mergeCell ref="FG3:FI3"/>
-    <mergeCell ref="FQ3:FR3"/>
-    <mergeCell ref="FS3:FU3"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="EM3:EN3"/>
-    <mergeCell ref="EO3:EP3"/>
-    <mergeCell ref="EU3:EW3"/>
-    <mergeCell ref="FA3:FB3"/>
-    <mergeCell ref="FC3:FD3"/>
-    <mergeCell ref="FE3:FF3"/>
-    <mergeCell ref="DB3:DC3"/>
-    <mergeCell ref="DD3:DF3"/>
-    <mergeCell ref="DH3:DJ3"/>
-    <mergeCell ref="DN3:DO3"/>
-    <mergeCell ref="DP3:DR3"/>
-    <mergeCell ref="EK3:EL3"/>
-    <mergeCell ref="CB3:CC3"/>
-    <mergeCell ref="CD3:CE3"/>
-    <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="CV3:CW3"/>
-    <mergeCell ref="CX3:CY3"/>
-    <mergeCell ref="CZ3:DA3"/>
-    <mergeCell ref="FK2:FL2"/>
-    <mergeCell ref="FM2:FN2"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FQ2:FR2"/>
-    <mergeCell ref="FS2:FT2"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="ES2:ET2"/>
-    <mergeCell ref="EU2:EV2"/>
-    <mergeCell ref="EW2:EX2"/>
-    <mergeCell ref="EY2:EZ2"/>
-    <mergeCell ref="FA2:FB2"/>
-    <mergeCell ref="FC2:FE2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="CZ2:DA2"/>
-    <mergeCell ref="DB2:DC2"/>
-    <mergeCell ref="DD2:DE2"/>
-    <mergeCell ref="DL2:DN2"/>
-    <mergeCell ref="EK2:EM2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="CT2:CU2"/>
-    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="FM14:FN14"/>
+    <mergeCell ref="FQ14:FS14"/>
+    <mergeCell ref="BL15:BM15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BZ15:CB15"/>
+    <mergeCell ref="CP15:CQ15"/>
+    <mergeCell ref="CR15:CS15"/>
+    <mergeCell ref="CT15:CU15"/>
+    <mergeCell ref="CV15:CW15"/>
+    <mergeCell ref="CX15:CY15"/>
+    <mergeCell ref="EM14:EN14"/>
+    <mergeCell ref="EO14:EQ14"/>
+    <mergeCell ref="ES14:ET14"/>
+    <mergeCell ref="EU14:EV14"/>
+    <mergeCell ref="EW14:EX14"/>
+    <mergeCell ref="EY14:EZ14"/>
+    <mergeCell ref="DB14:DC14"/>
+    <mergeCell ref="DD14:DF14"/>
+    <mergeCell ref="DH14:DI14"/>
+    <mergeCell ref="DJ14:DK14"/>
+    <mergeCell ref="DL14:DN14"/>
+    <mergeCell ref="DP14:DR14"/>
+    <mergeCell ref="EY15:EZ15"/>
+    <mergeCell ref="FA15:FB15"/>
+    <mergeCell ref="BN16:BO16"/>
+    <mergeCell ref="BT16:BU16"/>
+    <mergeCell ref="BV16:BW16"/>
+    <mergeCell ref="BX16:BZ16"/>
+    <mergeCell ref="CR16:CS16"/>
+    <mergeCell ref="EG15:EH15"/>
+    <mergeCell ref="EI15:EJ15"/>
+    <mergeCell ref="EK15:EL15"/>
+    <mergeCell ref="EM15:EN15"/>
+    <mergeCell ref="EO15:EP15"/>
+    <mergeCell ref="EQ15:ER15"/>
+    <mergeCell ref="CZ15:DA15"/>
+    <mergeCell ref="DF15:DH15"/>
+    <mergeCell ref="DJ15:DK15"/>
+    <mergeCell ref="DR15:DT15"/>
+    <mergeCell ref="EC15:ED15"/>
+    <mergeCell ref="EE15:EF15"/>
+    <mergeCell ref="CT16:CU16"/>
+    <mergeCell ref="CV16:CW16"/>
+    <mergeCell ref="CX16:CY16"/>
+    <mergeCell ref="CZ16:DA16"/>
+    <mergeCell ref="DB16:DD16"/>
+    <mergeCell ref="DN16:DO16"/>
+    <mergeCell ref="ES15:ET15"/>
+    <mergeCell ref="EU15:EV15"/>
+    <mergeCell ref="EW15:EX15"/>
+    <mergeCell ref="FS16:FU16"/>
+    <mergeCell ref="ES16:ET16"/>
+    <mergeCell ref="EU16:EV16"/>
+    <mergeCell ref="EW16:EX16"/>
+    <mergeCell ref="EY16:EZ16"/>
+    <mergeCell ref="FA16:FB16"/>
+    <mergeCell ref="FI16:FK16"/>
+    <mergeCell ref="DP16:DQ16"/>
+    <mergeCell ref="DR16:DS16"/>
+    <mergeCell ref="DT16:DU16"/>
+    <mergeCell ref="EA16:EB16"/>
+    <mergeCell ref="EI16:EK16"/>
+    <mergeCell ref="EQ16:ER16"/>
   </mergeCells>
   <conditionalFormatting sqref="BP100:CS129">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
